--- a/T1/output2.xlsx
+++ b/T1/output2.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -422,12 +434,12 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>x</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>y</t>
         </is>

--- a/T1/output2.xlsx
+++ b/T1/output2.xlsx
@@ -450,7 +450,7 @@
         <v>-1</v>
       </c>
       <c r="B2" t="n">
-        <v>9.457514198499325</v>
+        <v>9.457514198499329</v>
       </c>
     </row>
     <row r="3">
@@ -458,7 +458,7 @@
         <v>-0.9292929292929293</v>
       </c>
       <c r="B3" t="n">
-        <v>9.156305065079531</v>
+        <v>9.156305065079534</v>
       </c>
     </row>
     <row r="4">
@@ -466,7 +466,7 @@
         <v>-0.8585858585858586</v>
       </c>
       <c r="B4" t="n">
-        <v>8.864689038278588</v>
+        <v>8.864689038278593</v>
       </c>
     </row>
     <row r="5">
@@ -474,7 +474,7 @@
         <v>-0.7878787878787878</v>
       </c>
       <c r="B5" t="n">
-        <v>8.582360590526481</v>
+        <v>8.582360590526484</v>
       </c>
     </row>
     <row r="6">
@@ -482,7 +482,7 @@
         <v>-0.7171717171717171</v>
       </c>
       <c r="B6" t="n">
-        <v>8.309023924896218</v>
+        <v>8.309023924896222</v>
       </c>
     </row>
     <row r="7">
@@ -490,7 +490,7 @@
         <v>-0.6464646464646464</v>
       </c>
       <c r="B7" t="n">
-        <v>8.044392665195922</v>
+        <v>8.044392665195925</v>
       </c>
     </row>
     <row r="8">
@@ -498,7 +498,7 @@
         <v>-0.5757575757575758</v>
       </c>
       <c r="B8" t="n">
-        <v>7.78818955593105</v>
+        <v>7.788189555931053</v>
       </c>
     </row>
     <row r="9">
@@ -506,7 +506,7 @@
         <v>-0.5050505050505051</v>
       </c>
       <c r="B9" t="n">
-        <v>7.540146171822432</v>
+        <v>7.540146171822435</v>
       </c>
     </row>
     <row r="10">
@@ -514,7 +514,7 @@
         <v>-0.4343434343434344</v>
       </c>
       <c r="B10" t="n">
-        <v>7.300002636575762</v>
+        <v>7.300002636575765</v>
       </c>
     </row>
     <row r="11">
@@ -522,7 +522,7 @@
         <v>-0.3636363636363636</v>
       </c>
       <c r="B11" t="n">
-        <v>7.067507350607902</v>
+        <v>7.067507350607904</v>
       </c>
     </row>
     <row r="12">
@@ -530,7 +530,7 @@
         <v>-0.2929292929292929</v>
       </c>
       <c r="B12" t="n">
-        <v>6.842416727444744</v>
+        <v>6.842416727444746</v>
       </c>
     </row>
     <row r="13">
@@ -538,7 +538,7 @@
         <v>-0.2222222222222222</v>
       </c>
       <c r="B13" t="n">
-        <v>6.62449493851444</v>
+        <v>6.624494938514442</v>
       </c>
     </row>
     <row r="14">
@@ -546,7 +546,7 @@
         <v>-0.1515151515151516</v>
       </c>
       <c r="B14" t="n">
-        <v>6.413513666068626</v>
+        <v>6.413513666068629</v>
       </c>
     </row>
     <row r="15">
@@ -554,7 +554,7 @@
         <v>-0.08080808080808088</v>
       </c>
       <c r="B15" t="n">
-        <v>6.209251863972779</v>
+        <v>6.209251863972781</v>
       </c>
     </row>
     <row r="16">
@@ -562,7 +562,7 @@
         <v>-0.01010101010101017</v>
       </c>
       <c r="B16" t="n">
-        <v>6.011495526115073</v>
+        <v>6.011495526115076</v>
       </c>
     </row>
     <row r="17">
@@ -570,7 +570,7 @@
         <v>0.06060606060606055</v>
       </c>
       <c r="B17" t="n">
-        <v>5.820037462191109</v>
+        <v>5.820037462191111</v>
       </c>
     </row>
     <row r="18">
@@ -578,7 +578,7 @@
         <v>0.1313131313131313</v>
       </c>
       <c r="B18" t="n">
-        <v>5.63467708062959</v>
+        <v>5.634677080629593</v>
       </c>
     </row>
     <row r="19">
@@ -586,7 +586,7 @@
         <v>0.202020202020202</v>
       </c>
       <c r="B19" t="n">
-        <v>5.455220178431535</v>
+        <v>5.455220178431538</v>
       </c>
     </row>
     <row r="20">
@@ -594,7 +594,7 @@
         <v>0.2727272727272727</v>
       </c>
       <c r="B20" t="n">
-        <v>5.281478737702822</v>
+        <v>5.281478737702824</v>
       </c>
     </row>
     <row r="21">
@@ -602,7 +602,7 @@
         <v>0.3434343434343434</v>
       </c>
       <c r="B21" t="n">
-        <v>5.1132707286669</v>
+        <v>5.113270728666903</v>
       </c>
     </row>
     <row r="22">
@@ -610,7 +610,7 @@
         <v>0.4141414141414141</v>
       </c>
       <c r="B22" t="n">
-        <v>4.950419918951284</v>
+        <v>4.950419918951286</v>
       </c>
     </row>
     <row r="23">
@@ -618,7 +618,7 @@
         <v>0.4848484848484849</v>
       </c>
       <c r="B23" t="n">
-        <v>4.792755688948013</v>
+        <v>4.792755688948015</v>
       </c>
     </row>
     <row r="24">
@@ -626,7 +626,7 @@
         <v>0.5555555555555556</v>
       </c>
       <c r="B24" t="n">
-        <v>4.640112853054636</v>
+        <v>4.640112853054638</v>
       </c>
     </row>
     <row r="25">
@@ -634,7 +634,7 @@
         <v>0.6262626262626263</v>
       </c>
       <c r="B25" t="n">
-        <v>4.492331486608429</v>
+        <v>4.492331486608431</v>
       </c>
     </row>
     <row r="26">
@@ -642,7 +642,7 @@
         <v>0.6969696969696968</v>
       </c>
       <c r="B26" t="n">
-        <v>4.349256758332528</v>
+        <v>4.34925675833253</v>
       </c>
     </row>
     <row r="27">
@@ -650,7 +650,7 @@
         <v>0.7676767676767675</v>
       </c>
       <c r="B27" t="n">
-        <v>4.210738768118419</v>
+        <v>4.210738768118421</v>
       </c>
     </row>
     <row r="28">
@@ -658,7 +658,7 @@
         <v>0.8383838383838382</v>
       </c>
       <c r="B28" t="n">
-        <v>4.076632389974855</v>
+        <v>4.076632389974857</v>
       </c>
     </row>
     <row r="29">
@@ -666,7 +666,7 @@
         <v>0.9090909090909089</v>
       </c>
       <c r="B29" t="n">
-        <v>3.94679711997862</v>
+        <v>3.946797119978622</v>
       </c>
     </row>
     <row r="30">
@@ -674,7 +674,7 @@
         <v>0.9797979797979797</v>
       </c>
       <c r="B30" t="n">
-        <v>3.82109692906787</v>
+        <v>3.821096929067872</v>
       </c>
     </row>
     <row r="31">
@@ -682,7 +682,7 @@
         <v>1.050505050505051</v>
       </c>
       <c r="B31" t="n">
-        <v>3.699400120523803</v>
+        <v>3.699400120523804</v>
       </c>
     </row>
     <row r="32">
@@ -690,7 +690,7 @@
         <v>1.121212121212121</v>
       </c>
       <c r="B32" t="n">
-        <v>3.58157919199135</v>
+        <v>3.581579191991351</v>
       </c>
     </row>
     <row r="33">
@@ -698,7 +698,7 @@
         <v>1.191919191919192</v>
       </c>
       <c r="B33" t="n">
-        <v>3.467510701894315</v>
+        <v>3.467510701894317</v>
       </c>
     </row>
     <row r="34">
@@ -706,7 +706,7 @@
         <v>1.262626262626263</v>
       </c>
       <c r="B34" t="n">
-        <v>3.357075140105027</v>
+        <v>3.357075140105028</v>
       </c>
     </row>
     <row r="35">
@@ -714,7 +714,7 @@
         <v>1.333333333333333</v>
       </c>
       <c r="B35" t="n">
-        <v>3.25015680273297</v>
+        <v>3.250156802732972</v>
       </c>
     </row>
     <row r="36">
@@ -722,7 +722,7 @@
         <v>1.404040404040404</v>
       </c>
       <c r="B36" t="n">
-        <v>3.146643670901248</v>
+        <v>3.146643670901249</v>
       </c>
     </row>
     <row r="37">
@@ -730,7 +730,7 @@
         <v>1.474747474747474</v>
       </c>
       <c r="B37" t="n">
-        <v>3.046427293383842</v>
+        <v>3.046427293383843</v>
       </c>
     </row>
     <row r="38">
@@ -738,7 +738,7 @@
         <v>1.545454545454545</v>
       </c>
       <c r="B38" t="n">
-        <v>2.949402672980717</v>
+        <v>2.949402672980719</v>
       </c>
     </row>
     <row r="39">
@@ -746,7 +746,7 @@
         <v>1.616161616161616</v>
       </c>
       <c r="B39" t="n">
-        <v>2.855468156511738</v>
+        <v>2.855468156511739</v>
       </c>
     </row>
     <row r="40">
@@ -762,7 +762,7 @@
         <v>1.757575757575757</v>
       </c>
       <c r="B41" t="n">
-        <v>2.676478907131823</v>
+        <v>2.676478907131824</v>
       </c>
     </row>
     <row r="42">
@@ -770,7 +770,7 @@
         <v>1.828282828282828</v>
       </c>
       <c r="B42" t="n">
-        <v>2.591236646288963</v>
+        <v>2.591236646288964</v>
       </c>
     </row>
     <row r="43">
@@ -778,7 +778,7 @@
         <v>1.898989898989899</v>
       </c>
       <c r="B43" t="n">
-        <v>2.508709237042445</v>
+        <v>2.508709237042446</v>
       </c>
     </row>
     <row r="44">
@@ -786,7 +786,7 @@
         <v>1.96969696969697</v>
       </c>
       <c r="B44" t="n">
-        <v>2.428810215012778</v>
+        <v>2.428810215012779</v>
       </c>
     </row>
     <row r="45">
@@ -794,7 +794,7 @@
         <v>2.04040404040404</v>
       </c>
       <c r="B45" t="n">
-        <v>2.351455869594906</v>
+        <v>2.351455869594907</v>
       </c>
     </row>
     <row r="46">
@@ -802,7 +802,7 @@
         <v>2.111111111111111</v>
       </c>
       <c r="B46" t="n">
-        <v>2.27656515625419</v>
+        <v>2.276565156254191</v>
       </c>
     </row>
     <row r="47">
@@ -810,7 +810,7 @@
         <v>2.181818181818182</v>
       </c>
       <c r="B47" t="n">
-        <v>2.204059611615639</v>
+        <v>2.20405961161564</v>
       </c>
     </row>
     <row r="48">
@@ -818,7 +818,7 @@
         <v>2.252525252525253</v>
       </c>
       <c r="B48" t="n">
-        <v>2.133863271257445</v>
+        <v>2.133863271257446</v>
       </c>
     </row>
     <row r="49">
@@ -826,7 +826,7 @@
         <v>2.323232323232323</v>
       </c>
       <c r="B49" t="n">
-        <v>2.065902590122674</v>
+        <v>2.065902590122675</v>
       </c>
     </row>
     <row r="50">
@@ -834,7 +834,7 @@
         <v>2.393939393939394</v>
       </c>
       <c r="B50" t="n">
-        <v>2.000106365465745</v>
+        <v>2.000106365465746</v>
       </c>
     </row>
     <row r="51">
@@ -850,7 +850,7 @@
         <v>2.535353535353535</v>
       </c>
       <c r="B52" t="n">
-        <v>1.874733740938902</v>
+        <v>1.874733740938903</v>
       </c>
     </row>
     <row r="53">
@@ -874,7 +874,7 @@
         <v>2.747474747474747</v>
       </c>
       <c r="B55" t="n">
-        <v>1.70125475238698</v>
+        <v>1.701254752386981</v>
       </c>
     </row>
     <row r="56">
@@ -882,7 +882,7 @@
         <v>2.818181818181818</v>
       </c>
       <c r="B56" t="n">
-        <v>1.647072071934425</v>
+        <v>1.647072071934426</v>
       </c>
     </row>
     <row r="57">
@@ -906,7 +906,7 @@
         <v>3.03030303030303</v>
       </c>
       <c r="B59" t="n">
-        <v>1.494659816864965</v>
+        <v>1.494659816864966</v>
       </c>
     </row>
     <row r="60">
@@ -914,7 +914,7 @@
         <v>3.101010101010101</v>
       </c>
       <c r="B60" t="n">
-        <v>1.447056907818662</v>
+        <v>1.447056907818663</v>
       </c>
     </row>
     <row r="61">
@@ -930,7 +930,7 @@
         <v>3.242424242424242</v>
       </c>
       <c r="B62" t="n">
-        <v>1.35635107061651</v>
+        <v>1.356351070616511</v>
       </c>
     </row>
     <row r="63">
@@ -946,7 +946,7 @@
         <v>3.383838383838384</v>
       </c>
       <c r="B64" t="n">
-        <v>1.271330945467622</v>
+        <v>1.271330945467623</v>
       </c>
     </row>
     <row r="65">
@@ -962,7 +962,7 @@
         <v>3.525252525252525</v>
       </c>
       <c r="B66" t="n">
-        <v>1.191640135004973</v>
+        <v>1.191640135004974</v>
       </c>
     </row>
     <row r="67">
@@ -970,7 +970,7 @@
         <v>3.595959595959596</v>
       </c>
       <c r="B67" t="n">
-        <v>1.153687996115237</v>
+        <v>1.153687996115238</v>
       </c>
     </row>
     <row r="68">
@@ -1002,7 +1002,7 @@
         <v>3.878787878787879</v>
       </c>
       <c r="B71" t="n">
-        <v>1.013587816036073</v>
+        <v>1.013587816036074</v>
       </c>
     </row>
     <row r="72">
@@ -1010,7 +1010,7 @@
         <v>3.949494949494949</v>
       </c>
       <c r="B72" t="n">
-        <v>0.9813064045250519</v>
+        <v>0.9813064045250524</v>
       </c>
     </row>
     <row r="73">
@@ -1018,7 +1018,7 @@
         <v>4.02020202020202</v>
       </c>
       <c r="B73" t="n">
-        <v>0.9500531126427951</v>
+        <v>0.9500531126427956</v>
       </c>
     </row>
     <row r="74">
@@ -1026,7 +1026,7 @@
         <v>4.090909090909091</v>
       </c>
       <c r="B74" t="n">
-        <v>0.9197951961590621</v>
+        <v>0.9197951961590625</v>
       </c>
     </row>
     <row r="75">
@@ -1034,7 +1034,7 @@
         <v>4.161616161616162</v>
       </c>
       <c r="B75" t="n">
-        <v>0.8905009537033942</v>
+        <v>0.8905009537033945</v>
       </c>
     </row>
     <row r="76">
@@ -1042,7 +1042,7 @@
         <v>4.232323232323232</v>
       </c>
       <c r="B76" t="n">
-        <v>0.862139693551434</v>
+        <v>0.8621396935514344</v>
       </c>
     </row>
     <row r="77">
@@ -1050,7 +1050,7 @@
         <v>4.303030303030303</v>
       </c>
       <c r="B77" t="n">
-        <v>0.8346817014690493</v>
+        <v>0.8346817014690496</v>
       </c>
     </row>
     <row r="78">
@@ -1058,7 +1058,7 @@
         <v>4.373737373737374</v>
       </c>
       <c r="B78" t="n">
-        <v>0.808098209580584</v>
+        <v>0.8080982095805843</v>
       </c>
     </row>
     <row r="79">
@@ -1066,7 +1066,7 @@
         <v>4.444444444444445</v>
       </c>
       <c r="B79" t="n">
-        <v>0.7823613662286092</v>
+        <v>0.7823613662286095</v>
       </c>
     </row>
     <row r="80">
@@ -1074,7 +1074,7 @@
         <v>4.515151515151515</v>
       </c>
       <c r="B80" t="n">
-        <v>0.7574442067936029</v>
+        <v>0.7574442067936032</v>
       </c>
     </row>
     <row r="81">
@@ -1082,7 +1082,7 @@
         <v>4.585858585858586</v>
       </c>
       <c r="B81" t="n">
-        <v>0.7333206254429826</v>
+        <v>0.7333206254429829</v>
       </c>
     </row>
     <row r="82">
@@ -1090,7 +1090,7 @@
         <v>4.656565656565657</v>
       </c>
       <c r="B82" t="n">
-        <v>0.7099653477798953</v>
+        <v>0.7099653477798956</v>
       </c>
     </row>
     <row r="83">
@@ -1098,7 +1098,7 @@
         <v>4.727272727272727</v>
       </c>
       <c r="B83" t="n">
-        <v>0.6873539043631048</v>
+        <v>0.6873539043631052</v>
       </c>
     </row>
     <row r="84">
@@ -1106,7 +1106,7 @@
         <v>4.797979797979798</v>
       </c>
       <c r="B84" t="n">
-        <v>0.6654626050702341</v>
+        <v>0.6654626050702344</v>
       </c>
     </row>
     <row r="85">
@@ -1114,7 +1114,7 @@
         <v>4.868686868686869</v>
       </c>
       <c r="B85" t="n">
-        <v>0.6442685142775086</v>
+        <v>0.644268514277509</v>
       </c>
     </row>
     <row r="86">
@@ -1122,7 +1122,7 @@
         <v>4.939393939393939</v>
       </c>
       <c r="B86" t="n">
-        <v>0.6237494268299868</v>
+        <v>0.6237494268299871</v>
       </c>
     </row>
     <row r="87">
@@ -1130,7 +1130,7 @@
         <v>5.010101010101009</v>
       </c>
       <c r="B87" t="n">
-        <v>0.6038838447771083</v>
+        <v>0.6038838447771087</v>
       </c>
     </row>
     <row r="88">
@@ -1138,7 +1138,7 @@
         <v>5.08080808080808</v>
       </c>
       <c r="B88" t="n">
-        <v>0.5846509548491832</v>
+        <v>0.5846509548491835</v>
       </c>
     </row>
     <row r="89">
@@ -1146,7 +1146,7 @@
         <v>5.151515151515151</v>
       </c>
       <c r="B89" t="n">
-        <v>0.5660306066512264</v>
+        <v>0.5660306066512266</v>
       </c>
     </row>
     <row r="90">
@@ -1154,7 +1154,7 @@
         <v>5.222222222222222</v>
       </c>
       <c r="B90" t="n">
-        <v>0.5480032915512871</v>
+        <v>0.5480032915512874</v>
       </c>
     </row>
     <row r="91">
@@ -1162,7 +1162,7 @@
         <v>5.292929292929292</v>
       </c>
       <c r="B91" t="n">
-        <v>0.5305501222411584</v>
+        <v>0.5305501222411586</v>
       </c>
     </row>
     <row r="92">
@@ -1170,7 +1170,7 @@
         <v>5.363636363636363</v>
       </c>
       <c r="B92" t="n">
-        <v>0.513652812948048</v>
+        <v>0.5136528129480482</v>
       </c>
     </row>
     <row r="93">
@@ -1178,7 +1178,7 @@
         <v>5.434343434343434</v>
       </c>
       <c r="B93" t="n">
-        <v>0.4972936602764856</v>
+        <v>0.4972936602764859</v>
       </c>
     </row>
     <row r="94">
@@ -1186,7 +1186,7 @@
         <v>5.505050505050505</v>
       </c>
       <c r="B94" t="n">
-        <v>0.4814555246603841</v>
+        <v>0.4814555246603843</v>
       </c>
     </row>
     <row r="95">
@@ -1194,7 +1194,7 @@
         <v>5.575757575757575</v>
       </c>
       <c r="B95" t="n">
-        <v>0.4661218124058324</v>
+        <v>0.4661218124058327</v>
       </c>
     </row>
     <row r="96">
@@ -1202,7 +1202,7 @@
         <v>5.646464646464646</v>
       </c>
       <c r="B96" t="n">
-        <v>0.4512764583057982</v>
+        <v>0.4512764583057984</v>
       </c>
     </row>
     <row r="97">
@@ -1210,7 +1210,7 @@
         <v>5.717171717171717</v>
       </c>
       <c r="B97" t="n">
-        <v>0.4369039088085304</v>
+        <v>0.4369039088085306</v>
       </c>
     </row>
     <row r="98">
@@ -1218,7 +1218,7 @@
         <v>5.787878787878787</v>
       </c>
       <c r="B98" t="n">
-        <v>0.4229891057220261</v>
+        <v>0.4229891057220263</v>
       </c>
     </row>
     <row r="99">
@@ -1226,7 +1226,7 @@
         <v>5.858585858585858</v>
       </c>
       <c r="B99" t="n">
-        <v>0.4095174704374858</v>
+        <v>0.4095174704374859</v>
       </c>
     </row>
     <row r="100">
@@ -1234,7 +1234,7 @@
         <v>5.929292929292929</v>
       </c>
       <c r="B100" t="n">
-        <v>0.3964748886552333</v>
+        <v>0.3964748886552334</v>
       </c>
     </row>
     <row r="101">
@@ -1242,7 +1242,7 @@
         <v>6</v>
       </c>
       <c r="B101" t="n">
-        <v>0.3838476955970931</v>
+        <v>0.3838476955970933</v>
       </c>
     </row>
   </sheetData>
